--- a/Data/MagentoReg.xlsx
+++ b/Data/MagentoReg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9741F2C3-BDB6-4442-9AB7-CF1F419A1CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E00B0B-C4CB-4331-A7FE-5284CFE7737D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{A9E4CD4F-D5D2-4A83-9C29-B2071499A147}"/>
   </bookViews>
@@ -51,10 +51,10 @@
     <t>Password</t>
   </si>
   <si>
-    <t>testingautomation350@gmail.com</t>
-  </si>
-  <si>
-    <t>Password@7</t>
+    <t>automationtesting442@gmail.com</t>
+  </si>
+  <si>
+    <t>Password@442</t>
   </si>
 </sst>
 </file>
@@ -437,7 +437,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
